--- a/inventory/CORPUS OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/CORPUS OF PYU INSCRIPTIONS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="207">
   <si>
     <t>Myazedi pagoda, Myinkaba</t>
   </si>
@@ -834,6 +834,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sein Win 1997; photo Don Stadtner, Ancient Pagan; Naing Zaw 2011: 546-7 — Lost Kingdoms </t>
+  </si>
+  <si>
+    <t>clay sealings</t>
+  </si>
+  <si>
+    <t>Joost Buscman, priv. collection</t>
   </si>
 </sst>
 </file>
@@ -1085,24 +1091,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1129,6 +1117,24 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1428,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1467,31 +1473,31 @@
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="28" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1499,15 +1505,15 @@
       <c r="A4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="59">
       <c r="A5" s="10">
@@ -1519,7 +1525,7 @@
       <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -1549,7 +1555,7 @@
       <c r="C6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1558,7 +1564,7 @@
       <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="11"/>
@@ -1577,7 +1583,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -1586,7 +1592,7 @@
       <c r="F7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -1607,7 +1613,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -1616,7 +1622,7 @@
       <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="21" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="11" t="s">
@@ -1635,7 +1641,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -1644,7 +1650,7 @@
       <c r="F9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="21" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1663,7 +1669,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -1672,7 +1678,7 @@
       <c r="F10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="21" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -1691,7 +1697,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -1719,7 +1725,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1747,7 +1753,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="25"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1773,14 +1779,14 @@
         <v>69</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="22" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="11" t="s">
@@ -1801,7 +1807,7 @@
       <c r="C15" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="19" t="s">
         <v>175</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -1831,7 +1837,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="25"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>79</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>79</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="11" t="s">
         <v>18</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>79</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="25"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1939,14 +1945,14 @@
       <c r="C20" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="26" t="s">
         <v>176</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="23" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="14"/>
@@ -2018,7 +2024,7 @@
       <c r="F23" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="23" t="s">
         <v>84</v>
       </c>
       <c r="H23" s="14"/>
@@ -2062,7 +2068,7 @@
       <c r="F25" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="23" t="s">
         <v>84</v>
       </c>
       <c r="H25" s="14"/>
@@ -2084,7 +2090,7 @@
       <c r="F26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="23" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="14"/>
@@ -2158,7 +2164,7 @@
       <c r="F29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="23" t="s">
         <v>84</v>
       </c>
       <c r="H29" s="14"/>
@@ -2184,7 +2190,7 @@
       <c r="F30" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="23" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="14"/>
@@ -2232,7 +2238,7 @@
       <c r="F32" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="23" t="s">
         <v>119</v>
       </c>
       <c r="H32" s="14"/>
@@ -2254,7 +2260,7 @@
       <c r="F33" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="23" t="s">
         <v>121</v>
       </c>
       <c r="H33" s="14"/>
@@ -2278,7 +2284,7 @@
       <c r="F34" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="23" t="s">
         <v>84</v>
       </c>
       <c r="H34" s="14"/>
@@ -2300,7 +2306,7 @@
       <c r="F35" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="23" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="14"/>
@@ -2322,7 +2328,7 @@
       <c r="F36" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="24" t="s">
         <v>154</v>
       </c>
       <c r="H36" s="14"/>
@@ -2342,7 +2348,7 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="25" t="s">
         <v>129</v>
       </c>
       <c r="H37" s="14"/>
@@ -2362,7 +2368,7 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="25" t="s">
         <v>129</v>
       </c>
       <c r="H38" s="14"/>
@@ -2426,7 +2432,7 @@
       <c r="F41" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="25" t="s">
         <v>202</v>
       </c>
       <c r="H41" s="14"/>
@@ -2483,16 +2489,16 @@
       <c r="A44" s="15">
         <v>40</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="32"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="14" t="s">
         <v>169</v>
       </c>
@@ -2648,19 +2654,23 @@
       <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="15"/>
+      <c r="A51" s="15">
+        <v>47</v>
+      </c>
       <c r="B51" s="14" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="C51" s="16"/>
-      <c r="D51" s="14"/>
+      <c r="D51" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="G51" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="H51" s="14"/>
-      <c r="I51" s="14" t="s">
-        <v>157</v>
-      </c>
+      <c r="I51" s="14"/>
       <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10">
@@ -2675,7 +2685,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J52" s="14"/>
     </row>
@@ -2698,7 +2708,7 @@
     <row r="54" spans="1:10">
       <c r="A54" s="15"/>
       <c r="B54" s="14" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="14"/>
@@ -2707,16 +2717,14 @@
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>191</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J54" s="14"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="15"/>
       <c r="B55" s="14" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="14"/>
@@ -2725,26 +2733,32 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="15"/>
+      <c r="B56" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -2760,12 +2774,8 @@
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>136</v>
-      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
     </row>
@@ -2777,10 +2787,10 @@
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -2793,10 +2803,10 @@
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -2809,10 +2819,10 @@
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
@@ -2825,10 +2835,10 @@
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -2841,10 +2851,10 @@
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -2857,10 +2867,10 @@
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -2873,9 +2883,11 @@
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H65" s="17"/>
+        <v>147</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
     </row>
@@ -2887,11 +2899,9 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>151</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
     </row>
@@ -2903,10 +2913,10 @@
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -2918,10 +2928,26 @@
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="G68" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/inventory/CORPUS OF PYU INSCRIPTIONS.xlsx
+++ b/inventory/CORPUS OF PYU INSCRIPTIONS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="213">
   <si>
     <t>Myazedi pagoda, Myinkaba</t>
   </si>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>35 (673 CE)</t>
-  </si>
-  <si>
-    <t>INSCRIPTIONS IN PYU LANGUAGE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Listed in continuation of Duroiselle 1923</t>
@@ -737,9 +733,6 @@
     <t>Joost Buschman, priv. coll.</t>
   </si>
   <si>
-    <t>photos received from Don Stadtner</t>
-  </si>
-  <si>
     <t>Llanguage(s)</t>
   </si>
   <si>
@@ -836,10 +829,34 @@
     <t xml:space="preserve">Sein Win 1997; photo Don Stadtner, Ancient Pagan; Naing Zaw 2011: 546-7 — Lost Kingdoms </t>
   </si>
   <si>
-    <t>clay sealings</t>
-  </si>
-  <si>
     <t>Joost Buscman, priv. collection</t>
+  </si>
+  <si>
+    <t>clay sealing</t>
+  </si>
+  <si>
+    <t>U Ja-pan, Pyay, priv. collection</t>
+  </si>
+  <si>
+    <t>stamp</t>
+  </si>
+  <si>
+    <t>writing negative</t>
+  </si>
+  <si>
+    <t>photo received from Bob Hudson</t>
+  </si>
+  <si>
+    <t>photo received from ownver</t>
+  </si>
+  <si>
+    <t>photos received from ownver</t>
+  </si>
+  <si>
+    <t>A:1, B:1</t>
+  </si>
+  <si>
+    <t>PYU INSCRIPTIONS</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1062,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1136,6 +1153,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1434,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1454,7 +1475,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
@@ -1462,48 +1483,48 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="G3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="J3" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="31"/>
@@ -1520,28 +1541,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -1550,29 +1571,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28">
@@ -1580,11 +1601,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>5</v>
@@ -1593,16 +1614,16 @@
         <v>4</v>
       </c>
       <c r="G7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28">
@@ -1610,26 +1631,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="11"/>
     </row>
@@ -1638,26 +1659,26 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="11"/>
     </row>
@@ -1666,26 +1687,26 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="11"/>
     </row>
@@ -1694,26 +1715,26 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="11"/>
     </row>
@@ -1722,26 +1743,26 @@
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="I12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="11"/>
     </row>
@@ -1750,24 +1771,24 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="19"/>
       <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="11"/>
     </row>
@@ -1776,24 +1797,24 @@
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="19"/>
       <c r="E14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="J14" s="11"/>
     </row>
@@ -1802,31 +1823,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="42">
@@ -1834,27 +1855,27 @@
         <v>12</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="19"/>
       <c r="E16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="I16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="56">
@@ -1862,24 +1883,24 @@
         <v>13</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="19"/>
       <c r="E17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="11"/>
     </row>
@@ -1888,24 +1909,24 @@
         <v>14</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="19"/>
       <c r="E18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="11"/>
     </row>
@@ -1914,24 +1935,24 @@
         <v>15</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="19"/>
       <c r="E19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" s="11"/>
     </row>
@@ -1940,24 +1961,24 @@
         <v>16</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="D20" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="14"/>
     </row>
@@ -1966,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="16">
         <v>8</v>
@@ -1974,14 +1995,14 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="14"/>
     </row>
@@ -1990,22 +2011,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J22" s="14"/>
     </row>
@@ -2014,7 +2035,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="16">
         <v>3</v>
@@ -2022,10 +2043,10 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -2036,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="16">
         <v>5</v>
@@ -2044,10 +2065,10 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -2058,18 +2079,18 @@
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -2080,22 +2101,22 @@
         <v>22</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J26" s="14"/>
     </row>
@@ -2104,25 +2125,25 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28">
@@ -2130,22 +2151,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J28" s="14"/>
     </row>
@@ -2154,10 +2175,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2165,14 +2186,14 @@
         <v>4</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28">
@@ -2180,10 +2201,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -2191,14 +2212,14 @@
         <v>4</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2206,20 +2227,20 @@
         <v>27</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J31" s="14"/>
     </row>
@@ -2228,18 +2249,18 @@
         <v>28</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -2250,22 +2271,22 @@
         <v>29</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33" s="14"/>
     </row>
@@ -2274,18 +2295,18 @@
         <v>30</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -2296,18 +2317,18 @@
         <v>31</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -2318,18 +2339,18 @@
         <v>32</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -2340,16 +2361,16 @@
         <v>33</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -2360,16 +2381,16 @@
         <v>34</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -2378,7 +2399,7 @@
     <row r="39" spans="1:10">
       <c r="A39" s="15"/>
       <c r="B39" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="14"/>
@@ -2387,57 +2408,57 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="15">
+    <row r="40" spans="1:10" s="35" customFormat="1">
+      <c r="A40" s="34">
         <v>36</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14" t="s">
+      <c r="B40" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="J40" s="14"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" ht="42">
       <c r="A41" s="15">
         <v>37</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J41" s="14"/>
     </row>
@@ -2446,20 +2467,20 @@
         <v>38</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J42" s="14"/>
     </row>
@@ -2468,13 +2489,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -2482,7 +2503,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2490,20 +2511,20 @@
         <v>40</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2514,22 +2535,22 @@
         <v>41</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J45" s="14"/>
     </row>
@@ -2538,24 +2559,24 @@
         <v>42</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J46" s="14"/>
     </row>
@@ -2564,18 +2585,18 @@
         <v>43</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2586,24 +2607,24 @@
         <v>44</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J48" s="14"/>
     </row>
@@ -2612,22 +2633,22 @@
         <v>45</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J49" s="14"/>
     </row>
@@ -2636,95 +2657,125 @@
         <v>46</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J50" s="14"/>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="15">
+    <row r="51" spans="1:10" s="35" customFormat="1">
+      <c r="A51" s="34">
         <v>47</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" s="35" customFormat="1">
+      <c r="A52" s="34">
+        <v>48</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" s="35" customFormat="1">
+      <c r="A53" s="34">
+        <v>49</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14" t="s">
+      <c r="H53" s="26"/>
+      <c r="I53" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="1:10" s="35" customFormat="1">
+      <c r="A54" s="34">
+        <v>50</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="15"/>
-      <c r="B52" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="15"/>
-      <c r="B53" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="15"/>
-      <c r="B54" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J54" s="14"/>
+      <c r="C54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="15"/>
       <c r="B55" s="14" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="14"/>
@@ -2733,16 +2784,14 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>191</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="15"/>
       <c r="B56" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="14"/>
@@ -2751,63 +2800,69 @@
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>138</v>
-      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
     </row>
@@ -2818,12 +2873,8 @@
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>140</v>
-      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
     </row>
@@ -2835,10 +2886,10 @@
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -2851,10 +2902,10 @@
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -2867,10 +2918,10 @@
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -2883,10 +2934,10 @@
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -2899,9 +2950,11 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H66" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
     </row>
@@ -2913,10 +2966,10 @@
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -2929,10 +2982,10 @@
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
@@ -2944,10 +2997,56 @@
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="G69" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
